--- a/medicine/Maladies infectieuses/Lidia_Morawska/Lidia_Morawska.xlsx
+++ b/medicine/Maladies infectieuses/Lidia_Morawska/Lidia_Morawska.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lidia Morawska, née en 1952 à Tarnów en Pologne est une physicienne polono-australienne. Elle est professeure à l'école des sciences de la Terre et de l'atmosphère, à l'Université de technologie du Queensland et y est directrice du Laboratoire international pour la qualité de l'air et la santé. En 2020, elle fait partie des scientifiques qui démontrent que le Covid-19 est une maladie aéroportée. En 2021, elle figure sur la liste du magazine Time des 100 personnes les plus influentes au monde.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est née en 1952 à Tarnów en Pologne[1]. Son père, Henryk Jaskuła, est un navigateur et capitaine de voile. À l'âge de deux ans, elle déménage avec sa famille à Przemyśl où elle grandit[2]. Elle étudie la physique et obtient son doctorat en 1982 à l'Université Jagellon à Cracovie pour ses recherches sur le radon et ses descendants[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née en 1952 à Tarnów en Pologne. Son père, Henryk Jaskuła, est un navigateur et capitaine de voile. À l'âge de deux ans, elle déménage avec sa famille à Przemyśl où elle grandit. Elle étudie la physique et obtient son doctorat en 1982 à l'Université Jagellon à Cracovie pour ses recherches sur le radon et ses descendants.
 De 1982 à 1987, elle est chargée de recherche à l'Institut de physique et des techniques nucléaires de l'école des mines et de la métallurgie de Cracovie.
-Entre 1987 et 1991, elle effectue ses recherches postdoctorales au Canada à l'Université McMaster et à l'Agence internationale de l'énergie atomique, puis à l'Université de Toronto[3]. En 1991, elle rejoint l'Université de technologie du Queensland (QUT)   
-En 1991, elle créé le laboratoire des aérosols environnementaux à l'Université de technologie du Queensland, rebaptisé Laboratoire international de la qualité de l'air et de la santé en 2002. Elle décroche ensuite un poste de professeure associée au sein de cette même université en 2003[4].
-Elle est une collaboratrice et conseillère de longue date de l'Organisation mondiale de la santé, contribuant à toutes les directives de l'OMS relatives à la qualité de l'air au cours des deux dernières décennies. Elle copréside le groupe responsable des directives de l'OMS sur la qualité de l'air, sur lesquelles les nations fondent leurs normes de qualité de l'air[5].
-En 2020, elle est rédactrice en chef adjointe de la revue Science of the Total Environment[5].
+Entre 1987 et 1991, elle effectue ses recherches postdoctorales au Canada à l'Université McMaster et à l'Agence internationale de l'énergie atomique, puis à l'Université de Toronto. En 1991, elle rejoint l'Université de technologie du Queensland (QUT)   
+En 1991, elle créé le laboratoire des aérosols environnementaux à l'Université de technologie du Queensland, rebaptisé Laboratoire international de la qualité de l'air et de la santé en 2002. Elle décroche ensuite un poste de professeure associée au sein de cette même université en 2003.
+Elle est une collaboratrice et conseillère de longue date de l'Organisation mondiale de la santé, contribuant à toutes les directives de l'OMS relatives à la qualité de l'air au cours des deux dernières décennies. Elle copréside le groupe responsable des directives de l'OMS sur la qualité de l'air, sur lesquelles les nations fondent leurs normes de qualité de l'air.
+En 2020, elle est rédactrice en chef adjointe de la revue Science of the Total Environment.
 </t>
         </is>
       </c>
@@ -547,14 +561,11 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses intérêts de recherche et ses contributions scientifiques se situent dans les domaines de la qualité de l'air intérieur et extérieur. Elle travaille notamment sur les particules fines et ultrafines. Pendant la pandémie de COVID-19, elle a été amené à travailler sur le SARS-CoV-2[6].
-Recherche COVID-19
-En 2020, elle réunit et dirige un groupe multidisciplinaire de 239 scientifiques guidant les autorités de santé publique du monde entier pour reconnaître l'importance de la transmission aérienne des particules chargées du virus SARS-CoV-2 et le risque qu'elle pose pour la santé humaine[7],[8]. Sur la base de ces travaux, l'OMS et d'autres autorités nationales telles que le Center for Disease Control des États-Unis ont par la suite mis à jour leurs conseils concernant la transmission par voie aérienne. Ces organisations ont mis du temps à parler du coté aéroporté de la maladie ce qui a conduit à une polémique scientifique[9]. En 2020, elle est devenue membre du groupe de travail sur la sécurité au travail, à l'école et en voyage de la commission COVID du magazine The Lancet. Ce groupe vise à examiner les facteurs de risque liés aux bâtiments qui sont une composante essentielle, mais manquante, des enquêtes sur les épidémies de SRAS-CoV-2.
-Recherche sur les particules ultrafines
-Elle fait partie du groupe de scientifiques qui publie « Ultrafine Particles from Traffic Emissions and Children's Health » à Brisbane. Cette étude démontre que l'exposition aux particules ultrafines en suspension dans l'air émises en grandes quantités par les véhicules était indépendamment, positivement associée à l'inflammation systémique et respiratoire et a donc des effets délétères importants sur la santé[10]. En 2015, ces preuves ont convaincu l'Organisation mondiale de la santé et certains pays de revoir les normes nationales pour protéger les enfants en contrôlant leur exposition aux particules ultrafines[11].
-Depuis 2012, elle a également contribué à des programmes scientifiques internationaux, tels que les études Global Burden of Disease qui évaluent quantitativement l'impact de l'exposition à la pollution de l'air en tant que risque de maladie[12].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses intérêts de recherche et ses contributions scientifiques se situent dans les domaines de la qualité de l'air intérieur et extérieur. Elle travaille notamment sur les particules fines et ultrafines. Pendant la pandémie de COVID-19, elle a été amené à travailler sur le SARS-CoV-2.
 </t>
         </is>
       </c>
@@ -580,21 +591,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Honneurs et récompenses</t>
+          <t>Recherche</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2023 : Lauréate du Prix L'Oréal-UNESCO pour les femmes et la science[13]
-2022 : Lauréate d'une bourse du Conseil australien de la recherche[14]
-2021 : Liste du magazine Time des 100 personnalités les plus influentes dans la catégorie Innovateurs[15]
-2021 : Prix spécial ISIAQ 2020 pour un leadership académique extraordinaire, Société internationale de la qualité de l'air intérieur et du climat[16],[17]
-2020 : Prix des vice-chanceliers de QUT pour l'excellence en leadership, programme de reconnaissance de QUT[18]
-2020 : Membre de l'Académie des sciences australienne[19],[20]
-2018 : Prix Eureka pour la recherche sur les maladies infectieuses par l'Australian Museum of Eureka Prizes[21]
-2017 : Prix David Sinclair de l'Association américaine pour la recherche sur les aérosols[22]
-2017: Prix de performance du vice-chancelier de l'Université de technologie du Queensland[23]
-2011 : Médaille de l'air pur par la Clean Air Society d'Australie et de Nouvelle-Zélande[24]</t>
+          <t>Recherche COVID-19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2020, elle réunit et dirige un groupe multidisciplinaire de 239 scientifiques guidant les autorités de santé publique du monde entier pour reconnaître l'importance de la transmission aérienne des particules chargées du virus SARS-CoV-2 et le risque qu'elle pose pour la santé humaine,. Sur la base de ces travaux, l'OMS et d'autres autorités nationales telles que le Center for Disease Control des États-Unis ont par la suite mis à jour leurs conseils concernant la transmission par voie aérienne. Ces organisations ont mis du temps à parler du coté aéroporté de la maladie ce qui a conduit à une polémique scientifique. En 2020, elle est devenue membre du groupe de travail sur la sécurité au travail, à l'école et en voyage de la commission COVID du magazine The Lancet. Ce groupe vise à examiner les facteurs de risque liés aux bâtiments qui sont une composante essentielle, mais manquante, des enquêtes sur les épidémies de SRAS-CoV-2.
+</t>
         </is>
       </c>
     </row>
@@ -619,18 +628,133 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Recherche</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Recherche sur les particules ultrafines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle fait partie du groupe de scientifiques qui publie « Ultrafine Particles from Traffic Emissions and Children's Health » à Brisbane. Cette étude démontre que l'exposition aux particules ultrafines en suspension dans l'air émises en grandes quantités par les véhicules était indépendamment, positivement associée à l'inflammation systémique et respiratoire et a donc des effets délétères importants sur la santé. En 2015, ces preuves ont convaincu l'Organisation mondiale de la santé et certains pays de revoir les normes nationales pour protéger les enfants en contrôlant leur exposition aux particules ultrafines.
+Depuis 2012, elle a également contribué à des programmes scientifiques internationaux, tels que les études Global Burden of Disease qui évaluent quantitativement l'impact de l'exposition à la pollution de l'air en tant que risque de maladie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Lidia_Morawska</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lidia_Morawska</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Honneurs et récompenses</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2023 : Lauréate du Prix L'Oréal-UNESCO pour les femmes et la science
+2022 : Lauréate d'une bourse du Conseil australien de la recherche
+2021 : Liste du magazine Time des 100 personnalités les plus influentes dans la catégorie Innovateurs
+2021 : Prix spécial ISIAQ 2020 pour un leadership académique extraordinaire, Société internationale de la qualité de l'air intérieur et du climat,
+2020 : Prix des vice-chanceliers de QUT pour l'excellence en leadership, programme de reconnaissance de QUT
+2020 : Membre de l'Académie des sciences australienne,
+2018 : Prix Eureka pour la recherche sur les maladies infectieuses par l'Australian Museum of Eureka Prizes
+2017 : Prix David Sinclair de l'Association américaine pour la recherche sur les aérosols
+2017: Prix de performance du vice-chancelier de l'Université de technologie du Queensland
+2011 : Médaille de l'air pur par la Clean Air Society d'Australie et de Nouvelle-Zélande</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lidia_Morawska</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lidia_Morawska</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Elle est créditée de plus de 950 publications académiques, y compris des articles scientifiques, des chapitres de livres et des documents de conférence. Parmi les publications les plus citées figurent[25] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Elle est créditée de plus de 950 publications académiques, y compris des articles scientifiques, des chapitres de livres et des documents de conférence. Parmi les publications les plus citées figurent : 
 (en) Christopher J L Murray, « Disability-adjusted life years (DALYs) for 291 diseases and injuries in 21 regions, 1990-2010: a systematic analysis for the Global Burden of Disease Study 2010 », The Lancet, Elsevier, vol. 380, no 9859,‎ 15 décembre 2012, p. 2197-223 (ISSN 0140-6736 et 1474-547X, OCLC 01755507, PMID 23245608, DOI 10.1016/S0140-6736(12)61689-4)
-(en) Mohammad H Forouzanfar, Ashkan Afshin, Lily T Alexander, H Ross Anderson, Zulfiqar A Bhutta, Stan Biryukov, Michael Brauer, Richard Burnett, Kelly Cercy, Fiona J Charlson, Aaron J Cohen, Lalit Dandona, Kara Estep, Alize J Ferrari, Joseph J Frostad, Nancy Fullman, Peter W Gething, William W Godwin, Max Griswold, Simon I Hay, Yohannes Kinfu, Hmwe H Kyu, Heidi J Larson, Xiaofeng Liang, Stephen S Lim, Patrick Y Liu, Alan D Lopez, Rafael Lozano, Laurie Marczak, George A Mensah, Ali H Mokdad, Maziar Moradi-Lakeh, Mohsen Naghavi, Bruce Neal, Marissa B Reitsma, Gregory A Roth, Joshua A Salomon, Patrick J Sur, Theo Vos, Joseph A Wagner, Haidong Wang, Yi Zhao, Maigeng Zhou, Gunn Marit Aasvang, Amanuel Alemu Abajobir, Kalkidan Hassen Abate, Cristiana Abbafati, Kaja M Abbas, Foad Abd-Allah, Abdishakur M Abdulle, Semaw Ferede Abera, Biju Abraham, Laith J Abu-Raddad, Gebre Yitayih Abyu, Akindele Olupelumi Adebiyi, Isaac Akinkunmi Adedeji, Zanfina Ademi, Arsène Kouablan Adou, José C Adsuar, Emilie Elisabet Agardh, Arnav Agarwal, Anurag Agrawal, Aliasghar Ahmad Kiadaliri, Oluremi N Ajala, Tomi F Akinyemiju, Ziyad Al-Aly, Khurshid Alam, Noore K M Alam, Saleh Fahed Aldhahri, Robert William Aldridge, Zewdie Aderaw Alemu, Raghib Ali, Ala'a Alkerwi, François Alla, Peter Allebeck, Ubai Alsharif, Khalid A Altirkawi, Elena Alvarez Martin, Nelson Alvis-Guzman, Azmeraw T Amare, Alemayehu Amberbir, Adeladza Kofi Amegah, Heresh Amini, Walid Ammar, Stephen Marc Amrock, Hjalte H Andersen, Benjamin O Anderson, Carl Abelardo T Antonio, Palwasha Anwari, Johan Ärnlöv, Al Artaman, Hamid Asayesh, Rana Jawad Asghar, Reza Assadi, Suleman Atique, Euripide Frinel G Arthur Avokpaho, Ashish Awasthi, Beatriz Paulina Ayala Quintanilla, Peter Azzopardi, Umar Bacha, Alaa Badawi, Maria C Bahit, Kalpana Balakrishnan, Aleksandra Barac, Ryan M Barber, Suzanne L Barker-Collo, Till Bärnighausen, Simon Barquera, Lars Barregard, Lope H Barrero, Sanjay Basu, Carolina Batis, Shahrzad Bazargan-Hejazi, Justin Beardsley, Neeraj Bedi, Ettore Beghi, Brent Bell, Michelle L Bell, Aminu K Bello, Derrick A Bennett, Isabela M Bensenor, Adugnaw Berhane, Eduardo Bernabé, Balem Demtsu Betsu, Addisu Shunu Beyene, Neeraj Bhala, Anil Bhansali, Samir Bhatt, Sibhatu Biadgilign, Boris Bikbov, Donal Bisanzio, Espen Bjertness, Jed D Blore, Rohan Borschmann, Soufiane Boufous, Rupert R A Bourne, Michael Brainin, Alexandra Brazinova, Nicholas J K Breitborde, Hermann Brenner, David M Broday, Traolach S Brugha, Bert Brunekreef, Zahid A Butt, Leah E Cahill, Bianca Calabria, Ismael Ricardo Campos-Nonato, Rosario Cárdenas, David O Carpenter, Juan Jesus Carrero, Daniel C Casey, Carlos A Castañeda-Orjuela, Jacqueline Castillo Rivas, Ruben Estanislao Castro, Ferrán Catalá-López, Jung-Chen Chang, Peggy Pei-Chia Chiang, Mirriam Chibalabala, Odgerel Chimed-Ochir, Vesper Hichilombwe Chisumpa, Abdulaal A Chitheer, Jee-Young Jasmine Choi, Hanne Christensen, Devasahayam Jesudas Christopher, Liliana G Ciobanu, Matthew M Coates, Samantha M Colquhoun, Alejandra G Contreras Manzano, Leslie Trumbull Cooper, Kimberly Cooperrider, Leslie Cornaby, Monica Cortinovis, John A Crump, Lucia Cuevas-Nasu, Albertino Damasceno, Rakhi Dandona, Sarah C Darby, Paul I Dargan, José das Neves, Adrian C Davis, Kairat Davletov, E Filipa de Castro, Vanessa De la Cruz-Góngora, Diego De Leo, Louisa Degenhardt, Liana C Del Gobbo, Borja del Pozo-Cruz, Robert P Dellavalle, Amare Deribew, Don C Des Jarlais, Samath D Dharmaratne, Preet K Dhillon, Cesar Diaz-Torné, Daniel Dicker, Eric L Ding, E Ray Dorsey, Kerrie E Doyle, Tim R Driscoll, Leilei Duan, Manisha Dubey, Bruce Bartholow Duncan, Iqbal Elyazar, Aman Yesuf Endries, Sergey Petrovich Ermakov, Holly E Erskine, Babak Eshrati, Alireza Esteghamati, Saman Fahimi, Emerito Jose Aquino Faraon, Talha A Farid, Carla Sofia e Sa Farinha, André Faro, Maryam S Farvid, Farshad Farzadfar, Valery L Feigin, Seyed-Mohammad Fereshtehnejad, Jefferson G Fernandes, Florian Fischer, Joseph R A Fitchett, Tom Fleming, Nataliya Foigt, Kyle Foreman, F Gerry R Fowkes, Richard C Franklin, Thomas Fürst, Neal D Futran, Emmanuela Gakidou, Alberto L Garcia-Basteiro, Tsegaye Tewelde Gebrehiwot, Amanuel Tesfay Gebremedhin, Johanna M Geleijnse, Bradford D Gessner, Ababi Zergaw Giref, Maurice Giroud, Melkamu Dedefo Gishu, Giorgia Giussani, Shifalika Goenka, Mari Carmen Gomez-Cabrera, Hector Gomez-Dantes, Philimon Gona, Amador Goodridge, Sameer Vali Gopalani, Carolyn C Gotay, Atsushi Goto, Hebe N Gouda, Harish Chander Gugnani, Francis Guillemin, Yuming Guo, Rahul Gupta, Rajeev Gupta, Reyna A Gutiérrez, Juanita A Haagsma, Nima Hafezi-Nejad, Demewoz Haile, Gessessew Bugssa Hailu, Yara A Halasa, Randah Ribhi Hamadeh, Samer Hamidi, Alexis J Handal, Graeme J Hankey, Yuantao Hao, Hilda L Harb, Sivadasanpillai Harikrishnan, Josep Maria Haro, Mohammad Sadegh Hassanvand, Tahir Ahmed Hassen, Rasmus Havmoeller, Ileana Beatriz Heredia-Pi, Norberto Francisco Hernández-Llanes, Pouria Heydarpour, Hans W Hoek, Howard J Hoffman, Masako Horino, Nobuyuki Horita, H Dean Hosgood, Damian G Hoy, Mohamed Hsairi, Aung Soe Htet, Guoqing Hu, John J Huang, Abdullatif Husseini, Sally J Hutchings, Inge Huybrechts, Kim Moesgaard Iburg, Bulat T Idrisov, Bogdan Vasile Ileanu, Manami Inoue, Troy A Jacobs, Kathryn H Jacobsen, Nader Jahanmehr, Mihajlo B Jakovljevic, Henrica A F M Jansen, Simerjot K Jassal, Mehdi Javanbakht, Sudha P Jayaraman, Achala Upendra Jayatilleke, Sun Ha Jee, Panniyammakal Jeemon, Vivekanand Jha, Ying Jiang, Tariku Jibat, Ye Jin, Catherine O Johnson, Jost B Jonas, Zubair Kabir, Yogeshwar Kalkonde, Ritul Kamal, Haidong Kan, André Karch, Corine Kakizi Karema, Chante Karimkhani, Amir Kasaeian, Anil Kaul, Norito Kawakami, Dhruv S Kazi, Peter Njenga Keiyoro, Laura Kemmer, Andrew Haddon Kemp, Andre Pascal Kengne, Andre Keren, Chandrasekharan Nair Kesavachandran, Yousef Saleh Khader, Abdur Rahman Khan, Ejaz Ahmad Khan, Gulfaraz Khan, Young-Ho Khang, Shahab Khatibzadeh, Sahil Khera, Tawfik Ahmed Muthafer Khoja, Jagdish Khubchandani, Christian Kieling, Cho-il Kim, Daniel Kim, Ruth W Kimokoti, Niranjan Kissoon, Miia Kivipelto, Luke D Knibbs, Yoshihiro Kokubo, Jacek A Kopec, Parvaiz A Koul, Ai Koyanagi, Michael Kravchenko, Hans Kromhout, Hans Krueger, Tiffany Ku, Barthelemy Kuate Defo, Ricardo S Kuchenbecker, Burcu Kucuk Bicer, Ernst J Kuipers, G Anil Kumar, Gene F Kwan, Dharmesh Kumar Lal, Ratilal Lalloo, Tea Lallukka, Qing Lan, Anders Larsson, Asma Abdul Latif, Alicia Elena Beatriz Lawrynowicz, Janet L Leasher, James Leigh, Janni Leung, Miriam Levi, Xiaohong Li, Yichong Li, Juan Liang, Shiwei Liu, Belinda K Lloyd, Giancarlo Logroscino, Paulo A Lotufo, Raimundas Lunevicius, Michael MacIntyre, Mahdi Mahdavi, Marek Majdan, Azeem Majeed, Reza Malekzadeh, Deborah Carvalho Malta, Wondimu Ayele Ayele Manamo, Chabila C Mapoma, Wagner Marcenes, Randall V Martin, Jose Martinez-Raga, Felix Masiye, Kunihiro Matsushita, Richard Matzopoulos, Bongani M Mayosi, John J McGrath, Martin McKee, Peter A Meaney, Catalina Medina, Alem Mehari, Fabiola Mejia-Rodriguez, Alemayehu B Mekonnen, Yohannes Adama Melaku, Ziad A Memish, Walter Mendoza, Gert B M Mensink, Atte Meretoja, Tuomo J Meretoja, Yonatan Moges Mesfin, Francis Apolinary Mhimbira, Anoushka Millear, Ted R Miller, Edward J Mills, Mojde Mirarefin, Awoke Misganaw, Charles N Mock, Alireza Mohammadi, Shafiu Mohammed, Glen Liddell D Mola, Lorenzo Monasta, Julio Cesar Montañez Hernandez, Marcella Montico, Lidia Morawska, Rintaro Mori, Dariush Mozaffarian, Ulrich O Mueller, Erin Mullany, John Everett Mumford, Gudlavalleti Venkata Satyanarayana Murthy, Jean B Nachega, Aliya Naheed, Vinay Nangia, Nariman Nassiri, John N Newton, Marie Ng, Quyen Le Nguyen, Muhammad Imran Nisar, Patrick Martial Nkamedjie Pete, Ole F Norheim, Rosana E Norman, Bo Norrving, Luke Nyakarahuka, Carla Makhlouf Obermeyer, Felix Akpojene Ogbo, In-Hwan Oh, Olanrewaju Oladimeji, Pedro R Olivares, Helen Olsen, Bolajoko Olubukunola Olusanya, Jacob Olusegun Olusanya, John Nelson Opio, Eyal Oren, Ricardo Orozco, Alberto Ortiz, Erika Ota, Mahesh PA, Adrian Pana, Eun-Kee Park, Charles D Parry, Mahboubeh Parsaeian, Tejas Patel, Angel J Paternina Caicedo, Snehal T Patil, Scott B Patten, George C Patton, Neil Pearce, David M Pereira, Norberto Perico, Konrad Pesudovs, Max Petzold, Michael Robert Phillips, Frédéric B Piel, Julian David Pillay, Dietrich Plass, Suzanne Polinder, Constance D Pond, C Arden Pope, Daniel Pope, Svetlana Popova, Richie G Poulton, Farshad Pourmalek, Noela M Prasad, Mostafa Qorbani, Rynaz H S Rabiee, Amir Radfar, Anwar Rafay, Vafa Rahimi-Movaghar, Mahfuzar Rahman, Mohammad Hifz Ur Rahman, Sajjad Ur Rahman, Rajesh Kumar Rai, Sasa Rajsic, Murugesan Raju, Usha Ram, Saleem M Rana, Kavitha Ranganathan, Puja Rao, Christian Aspacia Razo García, Amany H Refaat, Colin D Rehm, Jürgen Rehm, Nikolas Reinig, Giuseppe Remuzzi, Serge Resnikoff, Antonio L Ribeiro, Juan A Rivera, Hirbo Shore Roba, Alina Rodriguez, Sonia Rodriguez-Ramirez, David Rojas-Rueda, Yesenia Roman, Luca Ronfani, Gholamreza Roshandel, Dietrich Rothenbacher, Ambuj Roy, Muhammad Muhammad Saleh, Juan R Sanabria, Lidia Sanchez-Riera, Maria Dolores Sanchez-Niño, Tania G Sánchez-Pimienta, Logan Sandar, Damian F Santomauro, Itamar S Santos, Rodrigo Sarmiento-Suarez, Benn Sartorius, Maheswar Satpathy, Miloje Savic, Monika Sawhney, Josef Schmidhuber, Maria Inês Schmidt, Ione J C Schneider, Ben Schöttker, Aletta E Schutte, David C Schwebel, James G Scott, Soraya Seedat, Sadaf G Sepanlou, Edson E Servan-Mori, Gavin Shaddick, Amira Shaheen, Saeid Shahraz, Masood Ali Shaikh, Teresa Shamah Levy, Rajesh Sharma, Jun She, Sara Sheikhbahaei, Jiabin Shen, Kevin N Sheth, Peilin Shi, Kenji Shibuya, Mika Shigematsu, Min-Jeong Shin, Rahman Shiri, Kawkab Shishani, Ivy Shiue, Mark G Shrime, Inga Dora Sigfusdottir, Diego Augusto Santos Silva, Dayane Gabriele Alves Silveira, Jonathan I Silverberg, Edgar P Simard, Shireen Sindi, Abhishek Singh, Jasvinder A Singh, Prashant Kumar Singh, Erica Leigh Slepak, Michael Soljak, Samir Soneji, Reed J D Sorensen, Luciano A Sposato, Chandrashekhar T Sreeramareddy, Vasiliki Stathopoulou, Nadine Steckling, Nicholas Steel, Dan J Stein, Murray B Stein, Heidi Stöckl, Saverio Stranges, Konstantinos Stroumpoulis, Bruno F Sunguya, Soumya Swaminathan, Bryan L Sykes, Cassandra E I Szoeke, Rafael Tabarés-Seisdedos, Ken Takahashi, Roberto Tchio Talongwa, Nikhil Tandon, David Tanne, Mohammad Tavakkoli, Belaynew Wasie Taye, Hugh R Taylor, Bemnet Amare Tedla, Worku Mekonnen Tefera, Teketo Kassaw Tegegne, Dejen Yemane Tekle, Abdullah Sulieman Terkawi, J S Thakur, Bernadette A Thomas, Matthew Lloyd Thomas, Alan J Thomson, Andrew L Thorne-Lyman, Amanda G Thrift, George D Thurston, Taavi Tillmann, Ruoyan Tobe-Gai, Myriam Tobollik, Roman Topor-Madry, Fotis Topouzis, Jeffrey Allen Towbin, Bach Xuan Tran, Zacharie Tsala Dimbuene, Nikolaos Tsilimparis, Abera Kenay Tura, Emin Murat Tuzcu, Stefanos Tyrovolas, Kingsley N Ukwaja, Eduardo A Undurraga, Chigozie Jesse Uneke, Olalekan A Uthman, Aaron van Donkelaar, Jim van Os, Yuri Y Varakin, Tommi Vasankari, J Lennert Veerman, Narayanaswamy Venketasubramanian, Francesco S Violante, Stein Emil Vollset, Gregory R Wagner, Stephen G Waller, JianLi Wang, Linhong Wang, Yanping Wang, Scott Weichenthal, Elisabete Weiderpass, Robert G Weintraub, Andrea Werdecker, Ronny Westerman, Harvey A Whiteford, Tissa Wijeratne, Charles Shey Wiysonge, Charles D A Wolfe, Sungho Won, Anthony D Woolf, Mamo Wubshet, Denis Xavier, Gelin Xu, Ajit Kumar Yadav, Bereket Yakob, Ayalnesh Zemene Yalew, Yuichiro Yano, Mehdi Yaseri, Pengpeng Ye, Paul Yip, Naohiro Yonemoto, Seok-Jun Yoon, Mustafa Z Younis, Chuanhua Yu, Zoubida Zaidi, Maysaa El Sayed Zaki, Jun Zhu, Ben Zipkin, Sanjay Zodpey, Liesl Joanna Zuhlke et Christopher J L Murray, « Global, regional, and national comparative risk assessment of 79 behavioural, environmental and occupational, and metabolic risks or clusters of risks, 1990-2015: a systematic analysis for the Global Burden of Disease Study 2015. », The Lancet, Elsevier, vol. 388, no 10053,‎ 1er octobre 2016, p. 1659-1724 (ISSN 0140-6736 et 1474-547X, OCLC 01755507, PMID 27733284, PMCID 5388856, DOI 10.1016/S0140-6736(16)31679-8)
-Publications sélectionnées sur le Covid-19
-Lidia Morawska, et al., "A paradigm shift to combat indoor respiratory infection". Science, 372(6543):  689-691, 2021[26].
-Lidia Morawska and Donald Milton, "It is Time to Address Airborne Transmission of COVID-19". Clinical Infectious Diseases, 71(9): 2311-2313, 2020[27].
-Lidia Morawska, et al., Morawska et al., "How can airborne transmission of COVID-19 indoors be minimised?" Environ. Int., 142:105832, 2020[28].
+(en) Mohammad H Forouzanfar, Ashkan Afshin, Lily T Alexander, H Ross Anderson, Zulfiqar A Bhutta, Stan Biryukov, Michael Brauer, Richard Burnett, Kelly Cercy, Fiona J Charlson, Aaron J Cohen, Lalit Dandona, Kara Estep, Alize J Ferrari, Joseph J Frostad, Nancy Fullman, Peter W Gething, William W Godwin, Max Griswold, Simon I Hay, Yohannes Kinfu, Hmwe H Kyu, Heidi J Larson, Xiaofeng Liang, Stephen S Lim, Patrick Y Liu, Alan D Lopez, Rafael Lozano, Laurie Marczak, George A Mensah, Ali H Mokdad, Maziar Moradi-Lakeh, Mohsen Naghavi, Bruce Neal, Marissa B Reitsma, Gregory A Roth, Joshua A Salomon, Patrick J Sur, Theo Vos, Joseph A Wagner, Haidong Wang, Yi Zhao, Maigeng Zhou, Gunn Marit Aasvang, Amanuel Alemu Abajobir, Kalkidan Hassen Abate, Cristiana Abbafati, Kaja M Abbas, Foad Abd-Allah, Abdishakur M Abdulle, Semaw Ferede Abera, Biju Abraham, Laith J Abu-Raddad, Gebre Yitayih Abyu, Akindele Olupelumi Adebiyi, Isaac Akinkunmi Adedeji, Zanfina Ademi, Arsène Kouablan Adou, José C Adsuar, Emilie Elisabet Agardh, Arnav Agarwal, Anurag Agrawal, Aliasghar Ahmad Kiadaliri, Oluremi N Ajala, Tomi F Akinyemiju, Ziyad Al-Aly, Khurshid Alam, Noore K M Alam, Saleh Fahed Aldhahri, Robert William Aldridge, Zewdie Aderaw Alemu, Raghib Ali, Ala'a Alkerwi, François Alla, Peter Allebeck, Ubai Alsharif, Khalid A Altirkawi, Elena Alvarez Martin, Nelson Alvis-Guzman, Azmeraw T Amare, Alemayehu Amberbir, Adeladza Kofi Amegah, Heresh Amini, Walid Ammar, Stephen Marc Amrock, Hjalte H Andersen, Benjamin O Anderson, Carl Abelardo T Antonio, Palwasha Anwari, Johan Ärnlöv, Al Artaman, Hamid Asayesh, Rana Jawad Asghar, Reza Assadi, Suleman Atique, Euripide Frinel G Arthur Avokpaho, Ashish Awasthi, Beatriz Paulina Ayala Quintanilla, Peter Azzopardi, Umar Bacha, Alaa Badawi, Maria C Bahit, Kalpana Balakrishnan, Aleksandra Barac, Ryan M Barber, Suzanne L Barker-Collo, Till Bärnighausen, Simon Barquera, Lars Barregard, Lope H Barrero, Sanjay Basu, Carolina Batis, Shahrzad Bazargan-Hejazi, Justin Beardsley, Neeraj Bedi, Ettore Beghi, Brent Bell, Michelle L Bell, Aminu K Bello, Derrick A Bennett, Isabela M Bensenor, Adugnaw Berhane, Eduardo Bernabé, Balem Demtsu Betsu, Addisu Shunu Beyene, Neeraj Bhala, Anil Bhansali, Samir Bhatt, Sibhatu Biadgilign, Boris Bikbov, Donal Bisanzio, Espen Bjertness, Jed D Blore, Rohan Borschmann, Soufiane Boufous, Rupert R A Bourne, Michael Brainin, Alexandra Brazinova, Nicholas J K Breitborde, Hermann Brenner, David M Broday, Traolach S Brugha, Bert Brunekreef, Zahid A Butt, Leah E Cahill, Bianca Calabria, Ismael Ricardo Campos-Nonato, Rosario Cárdenas, David O Carpenter, Juan Jesus Carrero, Daniel C Casey, Carlos A Castañeda-Orjuela, Jacqueline Castillo Rivas, Ruben Estanislao Castro, Ferrán Catalá-López, Jung-Chen Chang, Peggy Pei-Chia Chiang, Mirriam Chibalabala, Odgerel Chimed-Ochir, Vesper Hichilombwe Chisumpa, Abdulaal A Chitheer, Jee-Young Jasmine Choi, Hanne Christensen, Devasahayam Jesudas Christopher, Liliana G Ciobanu, Matthew M Coates, Samantha M Colquhoun, Alejandra G Contreras Manzano, Leslie Trumbull Cooper, Kimberly Cooperrider, Leslie Cornaby, Monica Cortinovis, John A Crump, Lucia Cuevas-Nasu, Albertino Damasceno, Rakhi Dandona, Sarah C Darby, Paul I Dargan, José das Neves, Adrian C Davis, Kairat Davletov, E Filipa de Castro, Vanessa De la Cruz-Góngora, Diego De Leo, Louisa Degenhardt, Liana C Del Gobbo, Borja del Pozo-Cruz, Robert P Dellavalle, Amare Deribew, Don C Des Jarlais, Samath D Dharmaratne, Preet K Dhillon, Cesar Diaz-Torné, Daniel Dicker, Eric L Ding, E Ray Dorsey, Kerrie E Doyle, Tim R Driscoll, Leilei Duan, Manisha Dubey, Bruce Bartholow Duncan, Iqbal Elyazar, Aman Yesuf Endries, Sergey Petrovich Ermakov, Holly E Erskine, Babak Eshrati, Alireza Esteghamati, Saman Fahimi, Emerito Jose Aquino Faraon, Talha A Farid, Carla Sofia e Sa Farinha, André Faro, Maryam S Farvid, Farshad Farzadfar, Valery L Feigin, Seyed-Mohammad Fereshtehnejad, Jefferson G Fernandes, Florian Fischer, Joseph R A Fitchett, Tom Fleming, Nataliya Foigt, Kyle Foreman, F Gerry R Fowkes, Richard C Franklin, Thomas Fürst, Neal D Futran, Emmanuela Gakidou, Alberto L Garcia-Basteiro, Tsegaye Tewelde Gebrehiwot, Amanuel Tesfay Gebremedhin, Johanna M Geleijnse, Bradford D Gessner, Ababi Zergaw Giref, Maurice Giroud, Melkamu Dedefo Gishu, Giorgia Giussani, Shifalika Goenka, Mari Carmen Gomez-Cabrera, Hector Gomez-Dantes, Philimon Gona, Amador Goodridge, Sameer Vali Gopalani, Carolyn C Gotay, Atsushi Goto, Hebe N Gouda, Harish Chander Gugnani, Francis Guillemin, Yuming Guo, Rahul Gupta, Rajeev Gupta, Reyna A Gutiérrez, Juanita A Haagsma, Nima Hafezi-Nejad, Demewoz Haile, Gessessew Bugssa Hailu, Yara A Halasa, Randah Ribhi Hamadeh, Samer Hamidi, Alexis J Handal, Graeme J Hankey, Yuantao Hao, Hilda L Harb, Sivadasanpillai Harikrishnan, Josep Maria Haro, Mohammad Sadegh Hassanvand, Tahir Ahmed Hassen, Rasmus Havmoeller, Ileana Beatriz Heredia-Pi, Norberto Francisco Hernández-Llanes, Pouria Heydarpour, Hans W Hoek, Howard J Hoffman, Masako Horino, Nobuyuki Horita, H Dean Hosgood, Damian G Hoy, Mohamed Hsairi, Aung Soe Htet, Guoqing Hu, John J Huang, Abdullatif Husseini, Sally J Hutchings, Inge Huybrechts, Kim Moesgaard Iburg, Bulat T Idrisov, Bogdan Vasile Ileanu, Manami Inoue, Troy A Jacobs, Kathryn H Jacobsen, Nader Jahanmehr, Mihajlo B Jakovljevic, Henrica A F M Jansen, Simerjot K Jassal, Mehdi Javanbakht, Sudha P Jayaraman, Achala Upendra Jayatilleke, Sun Ha Jee, Panniyammakal Jeemon, Vivekanand Jha, Ying Jiang, Tariku Jibat, Ye Jin, Catherine O Johnson, Jost B Jonas, Zubair Kabir, Yogeshwar Kalkonde, Ritul Kamal, Haidong Kan, André Karch, Corine Kakizi Karema, Chante Karimkhani, Amir Kasaeian, Anil Kaul, Norito Kawakami, Dhruv S Kazi, Peter Njenga Keiyoro, Laura Kemmer, Andrew Haddon Kemp, Andre Pascal Kengne, Andre Keren, Chandrasekharan Nair Kesavachandran, Yousef Saleh Khader, Abdur Rahman Khan, Ejaz Ahmad Khan, Gulfaraz Khan, Young-Ho Khang, Shahab Khatibzadeh, Sahil Khera, Tawfik Ahmed Muthafer Khoja, Jagdish Khubchandani, Christian Kieling, Cho-il Kim, Daniel Kim, Ruth W Kimokoti, Niranjan Kissoon, Miia Kivipelto, Luke D Knibbs, Yoshihiro Kokubo, Jacek A Kopec, Parvaiz A Koul, Ai Koyanagi, Michael Kravchenko, Hans Kromhout, Hans Krueger, Tiffany Ku, Barthelemy Kuate Defo, Ricardo S Kuchenbecker, Burcu Kucuk Bicer, Ernst J Kuipers, G Anil Kumar, Gene F Kwan, Dharmesh Kumar Lal, Ratilal Lalloo, Tea Lallukka, Qing Lan, Anders Larsson, Asma Abdul Latif, Alicia Elena Beatriz Lawrynowicz, Janet L Leasher, James Leigh, Janni Leung, Miriam Levi, Xiaohong Li, Yichong Li, Juan Liang, Shiwei Liu, Belinda K Lloyd, Giancarlo Logroscino, Paulo A Lotufo, Raimundas Lunevicius, Michael MacIntyre, Mahdi Mahdavi, Marek Majdan, Azeem Majeed, Reza Malekzadeh, Deborah Carvalho Malta, Wondimu Ayele Ayele Manamo, Chabila C Mapoma, Wagner Marcenes, Randall V Martin, Jose Martinez-Raga, Felix Masiye, Kunihiro Matsushita, Richard Matzopoulos, Bongani M Mayosi, John J McGrath, Martin McKee, Peter A Meaney, Catalina Medina, Alem Mehari, Fabiola Mejia-Rodriguez, Alemayehu B Mekonnen, Yohannes Adama Melaku, Ziad A Memish, Walter Mendoza, Gert B M Mensink, Atte Meretoja, Tuomo J Meretoja, Yonatan Moges Mesfin, Francis Apolinary Mhimbira, Anoushka Millear, Ted R Miller, Edward J Mills, Mojde Mirarefin, Awoke Misganaw, Charles N Mock, Alireza Mohammadi, Shafiu Mohammed, Glen Liddell D Mola, Lorenzo Monasta, Julio Cesar Montañez Hernandez, Marcella Montico, Lidia Morawska, Rintaro Mori, Dariush Mozaffarian, Ulrich O Mueller, Erin Mullany, John Everett Mumford, Gudlavalleti Venkata Satyanarayana Murthy, Jean B Nachega, Aliya Naheed, Vinay Nangia, Nariman Nassiri, John N Newton, Marie Ng, Quyen Le Nguyen, Muhammad Imran Nisar, Patrick Martial Nkamedjie Pete, Ole F Norheim, Rosana E Norman, Bo Norrving, Luke Nyakarahuka, Carla Makhlouf Obermeyer, Felix Akpojene Ogbo, In-Hwan Oh, Olanrewaju Oladimeji, Pedro R Olivares, Helen Olsen, Bolajoko Olubukunola Olusanya, Jacob Olusegun Olusanya, John Nelson Opio, Eyal Oren, Ricardo Orozco, Alberto Ortiz, Erika Ota, Mahesh PA, Adrian Pana, Eun-Kee Park, Charles D Parry, Mahboubeh Parsaeian, Tejas Patel, Angel J Paternina Caicedo, Snehal T Patil, Scott B Patten, George C Patton, Neil Pearce, David M Pereira, Norberto Perico, Konrad Pesudovs, Max Petzold, Michael Robert Phillips, Frédéric B Piel, Julian David Pillay, Dietrich Plass, Suzanne Polinder, Constance D Pond, C Arden Pope, Daniel Pope, Svetlana Popova, Richie G Poulton, Farshad Pourmalek, Noela M Prasad, Mostafa Qorbani, Rynaz H S Rabiee, Amir Radfar, Anwar Rafay, Vafa Rahimi-Movaghar, Mahfuzar Rahman, Mohammad Hifz Ur Rahman, Sajjad Ur Rahman, Rajesh Kumar Rai, Sasa Rajsic, Murugesan Raju, Usha Ram, Saleem M Rana, Kavitha Ranganathan, Puja Rao, Christian Aspacia Razo García, Amany H Refaat, Colin D Rehm, Jürgen Rehm, Nikolas Reinig, Giuseppe Remuzzi, Serge Resnikoff, Antonio L Ribeiro, Juan A Rivera, Hirbo Shore Roba, Alina Rodriguez, Sonia Rodriguez-Ramirez, David Rojas-Rueda, Yesenia Roman, Luca Ronfani, Gholamreza Roshandel, Dietrich Rothenbacher, Ambuj Roy, Muhammad Muhammad Saleh, Juan R Sanabria, Lidia Sanchez-Riera, Maria Dolores Sanchez-Niño, Tania G Sánchez-Pimienta, Logan Sandar, Damian F Santomauro, Itamar S Santos, Rodrigo Sarmiento-Suarez, Benn Sartorius, Maheswar Satpathy, Miloje Savic, Monika Sawhney, Josef Schmidhuber, Maria Inês Schmidt, Ione J C Schneider, Ben Schöttker, Aletta E Schutte, David C Schwebel, James G Scott, Soraya Seedat, Sadaf G Sepanlou, Edson E Servan-Mori, Gavin Shaddick, Amira Shaheen, Saeid Shahraz, Masood Ali Shaikh, Teresa Shamah Levy, Rajesh Sharma, Jun She, Sara Sheikhbahaei, Jiabin Shen, Kevin N Sheth, Peilin Shi, Kenji Shibuya, Mika Shigematsu, Min-Jeong Shin, Rahman Shiri, Kawkab Shishani, Ivy Shiue, Mark G Shrime, Inga Dora Sigfusdottir, Diego Augusto Santos Silva, Dayane Gabriele Alves Silveira, Jonathan I Silverberg, Edgar P Simard, Shireen Sindi, Abhishek Singh, Jasvinder A Singh, Prashant Kumar Singh, Erica Leigh Slepak, Michael Soljak, Samir Soneji, Reed J D Sorensen, Luciano A Sposato, Chandrashekhar T Sreeramareddy, Vasiliki Stathopoulou, Nadine Steckling, Nicholas Steel, Dan J Stein, Murray B Stein, Heidi Stöckl, Saverio Stranges, Konstantinos Stroumpoulis, Bruno F Sunguya, Soumya Swaminathan, Bryan L Sykes, Cassandra E I Szoeke, Rafael Tabarés-Seisdedos, Ken Takahashi, Roberto Tchio Talongwa, Nikhil Tandon, David Tanne, Mohammad Tavakkoli, Belaynew Wasie Taye, Hugh R Taylor, Bemnet Amare Tedla, Worku Mekonnen Tefera, Teketo Kassaw Tegegne, Dejen Yemane Tekle, Abdullah Sulieman Terkawi, J S Thakur, Bernadette A Thomas, Matthew Lloyd Thomas, Alan J Thomson, Andrew L Thorne-Lyman, Amanda G Thrift, George D Thurston, Taavi Tillmann, Ruoyan Tobe-Gai, Myriam Tobollik, Roman Topor-Madry, Fotis Topouzis, Jeffrey Allen Towbin, Bach Xuan Tran, Zacharie Tsala Dimbuene, Nikolaos Tsilimparis, Abera Kenay Tura, Emin Murat Tuzcu, Stefanos Tyrovolas, Kingsley N Ukwaja, Eduardo A Undurraga, Chigozie Jesse Uneke, Olalekan A Uthman, Aaron van Donkelaar, Jim van Os, Yuri Y Varakin, Tommi Vasankari, J Lennert Veerman, Narayanaswamy Venketasubramanian, Francesco S Violante, Stein Emil Vollset, Gregory R Wagner, Stephen G Waller, JianLi Wang, Linhong Wang, Yanping Wang, Scott Weichenthal, Elisabete Weiderpass, Robert G Weintraub, Andrea Werdecker, Ronny Westerman, Harvey A Whiteford, Tissa Wijeratne, Charles Shey Wiysonge, Charles D A Wolfe, Sungho Won, Anthony D Woolf, Mamo Wubshet, Denis Xavier, Gelin Xu, Ajit Kumar Yadav, Bereket Yakob, Ayalnesh Zemene Yalew, Yuichiro Yano, Mehdi Yaseri, Pengpeng Ye, Paul Yip, Naohiro Yonemoto, Seok-Jun Yoon, Mustafa Z Younis, Chuanhua Yu, Zoubida Zaidi, Maysaa El Sayed Zaki, Jun Zhu, Ben Zipkin, Sanjay Zodpey, Liesl Joanna Zuhlke et Christopher J L Murray, « Global, regional, and national comparative risk assessment of 79 behavioural, environmental and occupational, and metabolic risks or clusters of risks, 1990-2015: a systematic analysis for the Global Burden of Disease Study 2015. », The Lancet, Elsevier, vol. 388, no 10053,‎ 1er octobre 2016, p. 1659-1724 (ISSN 0140-6736 et 1474-547X, OCLC 01755507, PMID 27733284, PMCID 5388856, DOI 10.1016/S0140-6736(16)31679-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Lidia_Morawska</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lidia_Morawska</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications sélectionnées sur le Covid-19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lidia Morawska, et al., "A paradigm shift to combat indoor respiratory infection". Science, 372(6543):  689-691, 2021.
+Lidia Morawska and Donald Milton, "It is Time to Address Airborne Transmission of COVID-19". Clinical Infectious Diseases, 71(9): 2311-2313, 2020.
+Lidia Morawska, et al., Morawska et al., "How can airborne transmission of COVID-19 indoors be minimised?" Environ. Int., 142:105832, 2020.
 (en) Lidia Morawska et Junji Cao, « Airborne transmission of SARS-CoV-2: The world should face the reality », Environment International, Elsevier, vol. 139,‎ 10 avril 2020, p. 105730 (ISSN 0160-4120 et 1873-6750, OCLC 04079573, PMID 32294574, PMCID 7151430, DOI 10.1016/J.ENVINT.2020.105730)
 (en) Lian Zhou, Maosheng Yao, Xiang Zhang, Bicheng Hu, Xinyue Li, Haoxuan Chen, Lu Zhang, Yun Liu, Meng Du, Bochao Sun, Yunyu Jiang, Kai Zhou, Jie Hong, Na Yu, Zhen Ding, Yan Xu, Min Hu, Lidia Morawska, Sergey A Grinshpun, Pratim Biswas, Richard C Flagan, Baoli Zhu, Wenqing Liu et Yuanhang Zhang, « Breath-, air- and surface-borne SARS-CoV-2 in hospitals », Journal of Aerosol Science, Elsevier,‎ 15 octobre 2020, p. 105693 (ISSN 0021-8502 et 1879-1964, OCLC 01800058, PMID 33078030, PMCID 7557302, DOI 10.1016/J.JAEROSCI.2020.105693)
 (en) Shelly Miller, William W. Nazaroff, Jose L. Jimenez, Atze Boerstra, Giorgio Buonanno, Stephanie J Dancer, Jarek Kurnitski, Linsey Marr, Lidia Morawska et Catherine Noakes, « Transmission of SARS-CoV-2 by inhalation of respiratory aerosol in the Skagit Valley Chorale superspreading event », Indoor Air, Wiley-Blackwell, vol. 31, no 2,‎ 26 septembre 2020, p. 314-323 (ISSN 0905-6947 et 1600-0668, PMID 32979298, PMCID 7537089, DOI 10.1111/INA.12751)</t>
